--- a/files/Logboek-Lorenzo.xlsx
+++ b/files/Logboek-Lorenzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB22ECF-EB3E-4785-A91F-2FEE2F859383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152DA529-E0AC-411B-963E-C337ECFA5C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>🤔 Why keep a logbook?</t>
   </si>
@@ -205,6 +205,39 @@
   </si>
   <si>
     <t>Het idee van de game verder uitwerken en precieser bedenken, zodat we morgen kunnen beginnen met programmeren en de GitHub klaarzetten zodat we makkelijk samen kunnen werken.</t>
+  </si>
+  <si>
+    <t>Woensdag 1 Oktober</t>
+  </si>
+  <si>
+    <t>Stand up</t>
+  </si>
+  <si>
+    <t>bezig met de basis van de game te maken</t>
+  </si>
+  <si>
+    <t>het game plan veranderen naar zelfstandig klikken in plaats van automatisch geld krijgen omdat je niet de ui kan blijven refreshen en input kan geven tegelijk</t>
+  </si>
+  <si>
+    <t>de basis van de game afgerond</t>
+  </si>
+  <si>
+    <t>extra rebirth systeem toegevoegd</t>
+  </si>
+  <si>
+    <t>Donderdag 2 Oktober</t>
+  </si>
+  <si>
+    <t>bespreken wat er nog toegevoegd moet worden aan de game en korte stand up</t>
+  </si>
+  <si>
+    <t>extra functies toegevoegd met random ore kansen</t>
+  </si>
+  <si>
+    <t>plannen bedacht voor hoe de game er visual uit zou moeten zien wanneer we in de volgende challenge week pygame mogen gebruiken en de visuals van onze game verbeterd</t>
+  </si>
+  <si>
+    <t>Vrijdag 3 Oktober</t>
   </si>
 </sst>
 </file>
@@ -1728,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D157E15-6AB3-4DA8-9015-7FBB97E5B7DD}">
   <dimension ref="B1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1818,7 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(E4:E97)</f>
-        <v>0.1875</v>
+        <v>0.57638888888888895</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -1868,11 +1901,21 @@
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="2:7" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="22"/>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="E12" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="2:7" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
@@ -1882,11 +1925,21 @@
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="2:7" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="22"/>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E14" s="28">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
@@ -1895,47 +1948,87 @@
       <c r="E15" s="28"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="2:7" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="22"/>
+    <row r="16" spans="2:7" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E16" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="22"/>
+      <c r="B17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E17" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="28"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="22"/>
+      <c r="B19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E19" s="28">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="28"/>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="20"/>
+      <c r="B21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="E21" s="28">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
@@ -1945,11 +2038,21 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="22"/>
+      <c r="B23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E23" s="28">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
@@ -1958,12 +2061,22 @@
       <c r="E24" s="28"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="22"/>
+    <row r="25" spans="2:6" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E25" s="28">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B26" s="21"/>
@@ -1973,7 +2086,9 @@
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
+      <c r="B27" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="28"/>
@@ -1987,7 +2102,9 @@
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
+      <c r="B29" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="29"/>
@@ -2001,7 +2118,9 @@
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
+      <c r="B31" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="28"/>
@@ -2015,7 +2134,9 @@
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
+      <c r="B33" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="30"/>
@@ -2029,7 +2150,9 @@
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="2:6" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
+      <c r="B35" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="30"/>
@@ -5201,18 +5324,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5234,18 +5357,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E03D4F-D06B-40C1-A53D-F1DEB199C8A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14BB4D6E-C856-4503-A5F5-487F247D347A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E03D4F-D06B-40C1-A53D-F1DEB199C8A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>